--- a/public/cra_template.xlsx
+++ b/public/cra_template.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\my-next-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\cra-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6ABAC2-3B61-4102-979D-64E62E8DAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C2E17C-A739-474B-A397-0139BC267ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" xr2:uid="{8AB7D9AB-256E-4629-A1A1-CD7CBB01657F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="1" xr2:uid="{8AB7D9AB-256E-4629-A1A1-CD7CBB01657F}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="28" r:id="rId1"/>
+    <sheet name="Notice" sheetId="13" r:id="rId1"/>
+    <sheet name="data" sheetId="34" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CATEG">#REF!</definedName>
+    <definedName name="CATEG">Notice!$B$23:$B$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,12 +39,214 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DECIWAY_XPS</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{801451C5-A08A-46F3-B34E-4AA7EF86ED61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zone de saisie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{36BC2DF4-56FB-423F-A963-B362A858F72D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zone de saisie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{F303AE53-60F7-45CA-B8D0-E7CE45D10D96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zone de saisie</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeurs de temps possibles </t>
+  </si>
+  <si>
+    <t>Une journée (8h)</t>
+  </si>
+  <si>
+    <t>Trois quart de journée (6h)</t>
+  </si>
+  <si>
+    <t>Demi-journée (4h)</t>
+  </si>
+  <si>
+    <t>Quart-Journée (2h)</t>
+  </si>
+  <si>
+    <t>Type d'Activité</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Facturé</t>
+  </si>
+  <si>
+    <t>J'effectue une mission, un projet, une intervention, une prestation pour un client, dans le cadre d'un contrat et qui amènera à une facture</t>
+  </si>
+  <si>
+    <t>Non Facturé</t>
+  </si>
+  <si>
+    <t>Je travaille pour un client, pour XnDATA, en auto-formation, en formation interne, …. Mais pas dans le cadre d'un contrat</t>
+  </si>
   <si>
     <t>Autres</t>
   </si>
   <si>
+    <t>Je ne travaille pas</t>
+  </si>
+  <si>
+    <t>Activités</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Prestation de formation</t>
+  </si>
+  <si>
+    <t>Formation donnée à un client (ou autre) et facturée</t>
+  </si>
+  <si>
+    <t>Prestation régie / expertise</t>
+  </si>
+  <si>
+    <t>Mission / Projet chez un client ou pour un client impliquant une facturation</t>
+  </si>
+  <si>
+    <t>Auto-formation</t>
+  </si>
+  <si>
+    <t>Auto-formation suivi sur un sujet défini</t>
+  </si>
+  <si>
+    <t>Formation interne</t>
+  </si>
+  <si>
+    <t>Formation reçu en interne DN</t>
+  </si>
+  <si>
+    <t>Inter-contrat</t>
+  </si>
+  <si>
+    <t>Période entre 2 contrats</t>
+  </si>
+  <si>
+    <t>Journée séminaire, sortie</t>
+  </si>
+  <si>
+    <t>Journée séminaire, sortie organisée par José</t>
+  </si>
+  <si>
+    <t>Projet client</t>
+  </si>
+  <si>
+    <t>Projet interne</t>
+  </si>
+  <si>
+    <t>Absence autorisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absence autorisée par Greg/José différente de congés, maladie, arrêt,…. </t>
+  </si>
+  <si>
+    <t>Congé</t>
+  </si>
+  <si>
+    <t>Jours de congés légaux</t>
+  </si>
+  <si>
+    <t>Maladie / Arrêt</t>
+  </si>
+  <si>
+    <t>Arrêt maladie</t>
+  </si>
+  <si>
+    <t>RTT</t>
+  </si>
+  <si>
+    <t>Jours fériés</t>
+  </si>
+  <si>
+    <t>Jour de l'an</t>
+  </si>
+  <si>
+    <t>Lundi de Pâques</t>
+  </si>
+  <si>
+    <t>Fête du travail</t>
+  </si>
+  <si>
+    <t>Le 8 mai</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Pentecôte</t>
+  </si>
+  <si>
+    <t>Prise de la Bastille</t>
+  </si>
+  <si>
+    <t>Assomption</t>
+  </si>
+  <si>
+    <t>Toussaint</t>
+  </si>
+  <si>
+    <t>Armistice</t>
+  </si>
+  <si>
+    <t>Noël</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mois de </t>
   </si>
   <si>
@@ -80,13 +283,10 @@
     <t>Total Autres</t>
   </si>
   <si>
-    <t>Auto-Formation suivi sur un sujet défini</t>
-  </si>
-  <si>
-    <t>{{mois}}</t>
-  </si>
-  <si>
-    <t>{{nom}} {{prenom}}</t>
+    <t>Balens</t>
+  </si>
+  <si>
+    <t>Mathéo</t>
   </si>
 </sst>
 </file>
@@ -101,7 +301,7 @@
     <numFmt numFmtId="169" formatCode="mmmm\-yyyy"/>
     <numFmt numFmtId="170" formatCode="mm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -208,6 +408,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
@@ -250,8 +455,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +507,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="gray125">
         <fgColor indexed="43"/>
         <bgColor indexed="26"/>
@@ -303,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,13 +967,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,7 +1051,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -879,63 +1100,143 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="17" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Planning 2000.07.03" xfId="1" xr:uid="{0414F476-5310-4ED9-849C-08F499052F74}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -993,9 +1294,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="34"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor indexed="24"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1010,27 +1318,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="34"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="24"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1054,22 +1341,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>389890</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20498" name="Picture 5">
+        <xdr:cNvPr id="15556" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6DEA08-F8B7-8922-1650-DD09D9A02B1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA29606C-2C7C-0EC7-BAEC-9B8E2DE8BDC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,8 +1379,87 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="144780" y="0"/>
-          <a:ext cx="525780" cy="754380"/>
+          <a:off x="99060" y="83820"/>
+          <a:ext cx="533400" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26642" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D0B1B5-7769-2E63-ACFA-03C4C9AA225B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="0"/>
+          <a:ext cx="516255" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,1259 +1780,1971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A58C350-2971-4AAB-9986-6723091FD8EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1C572-92FC-4C0F-81F2-0949B997005B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AJ51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="10" customWidth="1"/>
+    <col min="9" max="10" width="2.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="10" customWidth="1"/>
+    <col min="12" max="13" width="3" style="10" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="3" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="3" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" style="10" customWidth="1"/>
+    <col min="23" max="24" width="3.33203125" style="10" customWidth="1"/>
+    <col min="25" max="26" width="3" style="10" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="3.33203125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="3.44140625" style="10" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="10" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" style="10" customWidth="1"/>
+    <col min="32" max="33" width="3.44140625" style="10" customWidth="1"/>
+    <col min="34" max="34" width="3.5546875" style="10" customWidth="1"/>
+    <col min="35" max="35" width="3" style="10" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="10" customWidth="1"/>
+    <col min="37" max="16384" width="11.44140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C1" s="58"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="62">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C7" s="63"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C8" s="63"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C9" s="63"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="63"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B19" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="63"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+    </row>
+    <row r="39" spans="2:5" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="77"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="70">
+        <f>DATE($C$6,1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="D41" s="71"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="70">
+        <f>DATE($C$6,4,21)</f>
+        <v>45768</v>
+      </c>
+      <c r="D42" s="71"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="70">
+        <f>DATE($C$6,5,1)</f>
+        <v>45778</v>
+      </c>
+      <c r="D43" s="71"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="70">
+        <f>DATE($C$6,5,8)</f>
+        <v>45785</v>
+      </c>
+      <c r="D44" s="71"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="70">
+        <f>DATE($C$6,5,29)</f>
+        <v>45806</v>
+      </c>
+      <c r="D45" s="71"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="70">
+        <f>DATE($C$6,6,9)</f>
+        <v>45817</v>
+      </c>
+      <c r="D46" s="71"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="70">
+        <f>DATE($C$6,7,14)</f>
+        <v>45852</v>
+      </c>
+      <c r="D47" s="71"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="70">
+        <f>DATE($C$6,8,15)</f>
+        <v>45884</v>
+      </c>
+      <c r="D48" s="71"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="70">
+        <f>DATE($C$6,11,1)</f>
+        <v>45962</v>
+      </c>
+      <c r="D49" s="71"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="70">
+        <f>DATE($C$6,11,11)</f>
+        <v>45972</v>
+      </c>
+      <c r="D50" s="71"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="70">
+        <f>DATE($C$6,12,25)</f>
+        <v>46016</v>
+      </c>
+      <c r="D51" s="71"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" pivotTables="0"/>
+  <mergeCells count="3">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="E1:AJ1"/>
+    <mergeCell ref="B40:C40"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Gras"&amp;12Feuille d'Activité</oddHeader>
+    <oddFooter>&amp;CDecision Network</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B31E3D0-0708-42D6-98CD-3D6F69C83F05}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="35" width="3.5546875" style="11" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" style="11" customWidth="1"/>
-    <col min="37" max="37" width="2.6640625" style="11" customWidth="1"/>
-    <col min="38" max="16384" width="11.44140625" style="11"/>
+    <col min="1" max="1" width="2.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="35" width="3.5546875" style="10" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" style="10" customWidth="1"/>
+    <col min="37" max="37" width="2.6640625" style="10" customWidth="1"/>
+    <col min="38" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:73" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="52"/>
-      <c r="E2" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="T2" s="58">
+      <c r="D2" s="51"/>
+      <c r="E2" s="80" t="str">
+        <f>CONCATENATE(Notice!C3,"-",Notice!C4)</f>
+        <v>Balens-Mathéo</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+      <c r="T2" s="83">
         <f>SUM(AJ6,AJ18,AJ26)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:73" ht="5.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="57"/>
+      <c r="B4" s="11">
+        <v>9</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="88">
+        <f>DATE(Notice!$C$6,B4,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
     </row>
     <row r="6" spans="1:73" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="13">
+      <c r="B6" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="53">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="52">
         <f>SUBTOTAL(9,AJ11:AJ16)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="54" t="s">
+      <c r="AK6" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:AI7" si="0">IF(E8=2,D7+1,D7)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S7" s="12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" ref="E7:AI7" si="0">IF(E8=2,D7+1,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="T7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="U7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="V7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="W7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+        <v>3</v>
+      </c>
+      <c r="X7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="12">
+        <f>IF(AF8&lt;&gt;"",IF(AF8=2,AE7+1,AE7),"")</f>
+        <v>4</v>
+      </c>
+      <c r="AG7" s="12">
+        <f>IF(AG8&lt;&gt;"",IF(AG8=2,AF7+1,AF7),"")</f>
+        <v>5</v>
+      </c>
+      <c r="AH7" s="12">
+        <f>IF(AH8&lt;&gt;"",IF(AH8=2,AG7+1,AG7),"")</f>
+        <v>5</v>
+      </c>
+      <c r="AI7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13" t="str">
-        <f>IF(AF8&lt;&gt;"",IF(AF8=2,AE7+1,AE7),"")</f>
-        <v/>
-      </c>
-      <c r="AG7" s="13" t="str">
-        <f>IF(AG8&lt;&gt;"",IF(AG8=2,AF7+1,AF7),"")</f>
-        <v/>
-      </c>
-      <c r="AH7" s="13" t="str">
-        <f>IF(AH8&lt;&gt;"",IF(AH8=2,AG7+1,AG7),"")</f>
-        <v/>
-      </c>
-      <c r="AI7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AO7" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="AO7" s="17"/>
     </row>
     <row r="8" spans="1:73" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
+      <c r="E8" s="20">
+        <f>WEEKDAY(E9)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" ref="F8:AE8" si="1">IF(F9&lt;&gt;"",WEEKDAY(F9),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U8" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W8" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="X8" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA8" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB8" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AE8" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AF8" s="21">
+        <f>IF(AF9&lt;&gt;"",WEEKDAY(AF9),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="21">
+        <f>IF(AG9&lt;&gt;"",WEEKDAY(AG9),"")</f>
+        <v>2</v>
+      </c>
+      <c r="AH8" s="21">
+        <f>IF(AH9&lt;&gt;"",WEEKDAY(AH9),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AI8" s="21" t="str">
+        <f>IF(AI9&lt;&gt;"",WEEKDAY(AI9),"")</f>
+        <v/>
+      </c>
       <c r="AJ8" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="7"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
-      <c r="BD8" s="27"/>
-      <c r="BE8" s="27"/>
-      <c r="BF8" s="27"/>
-      <c r="BG8" s="27"/>
-      <c r="BH8" s="27"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="27"/>
-      <c r="BM8" s="27"/>
-      <c r="BN8" s="27"/>
-      <c r="BO8" s="27"/>
-      <c r="BP8" s="27"/>
-      <c r="BQ8" s="27"/>
-      <c r="BR8" s="27"/>
-      <c r="BS8" s="27"/>
-      <c r="BT8" s="27"/>
-      <c r="BU8" s="27"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="26"/>
+      <c r="BG8" s="26"/>
+      <c r="BH8" s="26"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
+      <c r="BK8" s="25"/>
+      <c r="BL8" s="26"/>
+      <c r="BM8" s="26"/>
+      <c r="BN8" s="26"/>
+      <c r="BO8" s="26"/>
+      <c r="BP8" s="26"/>
+      <c r="BQ8" s="26"/>
+      <c r="BR8" s="26"/>
+      <c r="BS8" s="26"/>
+      <c r="BT8" s="26"/>
+      <c r="BU8" s="26"/>
     </row>
     <row r="9" spans="1:73" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="79"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
+      <c r="E9" s="27">
+        <f>DATE(Notice!$C$6,$B$4,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="F9" s="28">
+        <f>IF(E9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(E9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(E9)+1),""))</f>
+        <v>45902</v>
+      </c>
+      <c r="G9" s="28">
+        <f>IF(F9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(F9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(F9)+1),""))</f>
+        <v>45903</v>
+      </c>
+      <c r="H9" s="28">
+        <f>IF(G9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(G9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(G9)+1),""))</f>
+        <v>45904</v>
+      </c>
+      <c r="I9" s="28">
+        <f>IF(H9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(H9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(H9)+1),""))</f>
+        <v>45905</v>
+      </c>
+      <c r="J9" s="28">
+        <f>IF(I9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(I9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(I9)+1),""))</f>
+        <v>45906</v>
+      </c>
+      <c r="K9" s="28">
+        <f>IF(J9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(J9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(J9)+1),""))</f>
+        <v>45907</v>
+      </c>
+      <c r="L9" s="28">
+        <f>IF(K9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(K9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(K9)+1),""))</f>
+        <v>45908</v>
+      </c>
+      <c r="M9" s="28">
+        <f>IF(L9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(L9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(L9)+1),""))</f>
+        <v>45909</v>
+      </c>
+      <c r="N9" s="28">
+        <f>IF(M9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(M9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(M9)+1),""))</f>
+        <v>45910</v>
+      </c>
+      <c r="O9" s="28">
+        <f>IF(N9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(N9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(N9)+1),""))</f>
+        <v>45911</v>
+      </c>
+      <c r="P9" s="28">
+        <f>IF(O9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(O9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(O9)+1),""))</f>
+        <v>45912</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>IF(P9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(P9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(P9)+1),""))</f>
+        <v>45913</v>
+      </c>
+      <c r="R9" s="28">
+        <f>IF(Q9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(Q9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(Q9)+1),""))</f>
+        <v>45914</v>
+      </c>
+      <c r="S9" s="28">
+        <f>IF(R9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(R9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(R9)+1),""))</f>
+        <v>45915</v>
+      </c>
+      <c r="T9" s="28">
+        <f>IF(S9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(S9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(S9)+1),""))</f>
+        <v>45916</v>
+      </c>
+      <c r="U9" s="28">
+        <f>IF(T9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(T9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(T9)+1),""))</f>
+        <v>45917</v>
+      </c>
+      <c r="V9" s="28">
+        <f>IF(U9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(U9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(U9)+1),""))</f>
+        <v>45918</v>
+      </c>
+      <c r="W9" s="28">
+        <f>IF(V9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(V9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(V9)+1),""))</f>
+        <v>45919</v>
+      </c>
+      <c r="X9" s="28">
+        <f>IF(W9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(W9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(W9)+1),""))</f>
+        <v>45920</v>
+      </c>
+      <c r="Y9" s="28">
+        <f>IF(X9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(X9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(X9)+1),""))</f>
+        <v>45921</v>
+      </c>
+      <c r="Z9" s="28">
+        <f>IF(Y9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(Y9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(Y9)+1),""))</f>
+        <v>45922</v>
+      </c>
+      <c r="AA9" s="28">
+        <f>IF(Z9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(Z9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(Z9)+1),""))</f>
+        <v>45923</v>
+      </c>
+      <c r="AB9" s="28">
+        <f>IF(AA9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AA9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AA9)+1),""))</f>
+        <v>45924</v>
+      </c>
+      <c r="AC9" s="28">
+        <f>IF(AB9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AB9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AB9)+1),""))</f>
+        <v>45925</v>
+      </c>
+      <c r="AD9" s="28">
+        <f>IF(AC9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AC9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AC9)+1),""))</f>
+        <v>45926</v>
+      </c>
+      <c r="AE9" s="28">
+        <f>IF(AD9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AD9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AD9)+1),""))</f>
+        <v>45927</v>
+      </c>
+      <c r="AF9" s="28">
+        <f>IF(AE9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AE9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AE9)+1),""))</f>
+        <v>45928</v>
+      </c>
+      <c r="AG9" s="28">
+        <f>IF(AF9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AF9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AF9)+1),""))</f>
+        <v>45929</v>
+      </c>
+      <c r="AH9" s="28">
+        <f>IF(AG9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AG9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AG9)+1),""))</f>
+        <v>45930</v>
+      </c>
+      <c r="AI9" s="28" t="str">
+        <f>IF(AH9="","",IF(MONTH(DATE(Notice!$C$6,$B$4,DAY(AH9)+1))=$B$4,DATE(Notice!$C$6,$B$4,DAY(AH9)+1),""))</f>
+        <v/>
+      </c>
       <c r="AJ9" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="8"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27"/>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27"/>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26"/>
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
     </row>
     <row r="10" spans="1:73" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>8</v>
+      <c r="B10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="34"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="33"/>
       <c r="AJ10" s="3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="8"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="27"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36"/>
-      <c r="BK10" s="36"/>
-      <c r="BO10" s="27"/>
-      <c r="BP10" s="27"/>
-      <c r="BQ10" s="27"/>
-      <c r="BR10" s="27"/>
-      <c r="BS10" s="27"/>
-      <c r="BT10" s="27"/>
-      <c r="BU10" s="27"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="26"/>
+      <c r="BR10" s="26"/>
+      <c r="BS10" s="26"/>
+      <c r="BT10" s="26"/>
+      <c r="BU10" s="26"/>
     </row>
     <row r="11" spans="1:73" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="55">
+      <c r="A11" s="10"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="54">
         <f>IF(SUM(E11:AI11)&gt;0,SUM(E11:AI11),)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="11"/>
+      <c r="AK11" s="10"/>
     </row>
     <row r="12" spans="1:73" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="55">
+      <c r="A12" s="10"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="54">
         <f>IF(SUM(E12:AI12)&gt;0,SUM(E12:AI12),)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="11"/>
+      <c r="AK12" s="10"/>
     </row>
     <row r="13" spans="1:73" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="55">
-        <f t="shared" ref="AJ13:AJ24" si="1">IF(SUM(E13:AI13)&gt;0,SUM(E13:AI13),)</f>
+      <c r="A13" s="10"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="54">
+        <f t="shared" ref="AJ13:AJ24" si="2">IF(SUM(E13:AI13)&gt;0,SUM(E13:AI13),)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="11"/>
+      <c r="AK13" s="10"/>
     </row>
     <row r="14" spans="1:73" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="55">
-        <f t="shared" si="1"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="11"/>
+      <c r="AK14" s="10"/>
     </row>
     <row r="15" spans="1:73" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="55">
-        <f t="shared" si="1"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="11"/>
+      <c r="AK15" s="10"/>
     </row>
     <row r="16" spans="1:73" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="55">
-        <f t="shared" si="1"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="11"/>
+      <c r="AK16" s="10"/>
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="AJ18" s="53">
+      <c r="B18" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="AJ18" s="52">
         <f>SUBTOTAL(9,AJ19:AJ24)</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="54" t="s">
-        <v>11</v>
+      <c r="AK18" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
       <c r="AI19" s="45"/>
-      <c r="AJ19" s="55">
-        <f t="shared" si="1"/>
+      <c r="AJ19" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="11"/>
+      <c r="AK19" s="10"/>
     </row>
     <row r="20" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="55">
-        <f t="shared" si="1"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="11"/>
+      <c r="AK20" s="10"/>
     </row>
     <row r="21" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="55">
-        <f t="shared" si="1"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="11"/>
+      <c r="AK21" s="10"/>
     </row>
     <row r="22" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="55">
-        <f t="shared" si="1"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="11"/>
+      <c r="AK22" s="10"/>
     </row>
     <row r="23" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="55">
-        <f t="shared" si="1"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="11"/>
+      <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="55">
-        <f t="shared" si="1"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="11"/>
+      <c r="AK24" s="10"/>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="AJ26" s="53">
+      <c r="B26" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="AJ26" s="52">
         <f>SUBTOTAL(9,AJ27:AJ31)</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="54" t="s">
-        <v>12</v>
+      <c r="AK26" s="53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="55">
+      <c r="A27" s="10"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="54">
         <f>IF(SUM(E27:AI27)&gt;0,SUM(E27:AI27),)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="11"/>
+      <c r="AK27" s="10"/>
     </row>
     <row r="28" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="55">
+      <c r="A28" s="10"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="54">
         <f>IF(SUM(E28:AI28)&gt;0,SUM(E28:AI28),)</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="11"/>
+      <c r="AK28" s="10"/>
     </row>
     <row r="29" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="55">
+      <c r="A29" s="10"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="54">
         <f>IF(SUM(E29:AI29)&gt;0,SUM(E29:AI29),)</f>
         <v>0</v>
       </c>
-      <c r="AK29" s="11"/>
+      <c r="AK29" s="10"/>
     </row>
     <row r="30" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="55">
+      <c r="A30" s="10"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="54">
         <f>IF(SUM(E30:AI30)&gt;0,SUM(E30:AI30),)</f>
         <v>0</v>
       </c>
-      <c r="AK30" s="11"/>
+      <c r="AK30" s="10"/>
     </row>
     <row r="31" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="55">
+      <c r="A31" s="10"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="54">
         <f>IF(SUM(E31:AI31)&gt;0,SUM(E31:AI31),)</f>
         <v>0</v>
       </c>
-      <c r="AK31" s="11"/>
+      <c r="AK31" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" pivotTables="0"/>
@@ -2681,33 +3759,25 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E19:O19 Q19:AI19 E11:AI16 M22:M23 E22:L24 N22:AI24 M30 E30:L31 N30:AI31">
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="E6:AI6 E8:AI16">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+      <formula>E$8=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+      <formula>E$8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:AI16 M22:M23 E22:L24 N22:AI24 M30 E30:L31 N30:AI31">
+    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:O19 Q19:AI19">
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
-      <formula>E$8=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
-      <formula>E$8=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:AI6 E8:AI16">
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
-      <formula>E$8=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
-      <formula>E$8=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:AI21">
+  <conditionalFormatting sqref="E19:AI21">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:AI24">
+  <conditionalFormatting sqref="E19:AI24">
     <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>E$8=7</formula>
     </cfRule>
@@ -2729,7 +3799,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Gras"&amp;12Feuille d'Activité</oddHeader>
     <oddFooter>&amp;CDecision Network</oddFooter>
@@ -2738,21 +3808,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E9EC9F07-E055-4901-83B3-3824CA0E4522}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{6C2E1817-C04F-49FE-89EB-A7C6069D3C06}">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Notice!$B$25:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>B19:B24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{D42290A8-E74A-40D0-B10C-D43BFE73C98A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{A1B92E1F-0C4B-442C-9C3C-3F4F89E592A9}">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Notice!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>B11:B16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{628CBDF8-4C6C-418F-9AAA-AD7F3FDE5638}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{F1AAD1C3-F24A-42E3-8191-930D5C2BBA2A}">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Notice!$B$31:$B$34</xm:f>
           </x14:formula1>
           <xm:sqref>B27:B31</xm:sqref>
         </x14:dataValidation>
@@ -2763,6 +3833,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5b27a48-739f-490e-a0b7-4dd1b97f57bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2771,41 +3849,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="fbd20f8d-4393-4267-a91e-177565f53573" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9a805386-296a-4c25-a15d-8b8f56daca3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085FBA9D7ED17B44C8281100398F54A93" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="12a6882e8cf834525958071f703b161a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fbd20f8d-4393-4267-a91e-177565f53573" xmlns:ns3="9a805386-296a-4c25-a15d-8b8f56daca3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cac84afccb524cbf634ebeeebacae57b" ns2:_="" ns3:_="">
-    <xsd:import namespace="fbd20f8d-4393-4267-a91e-177565f53573"/>
-    <xsd:import namespace="9a805386-296a-4c25-a15d-8b8f56daca3c"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008900C4CF1A449F4FB51C135D2A5F2B6E" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5a73bd5c5be0b3904b2022550a9fc5dd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5b27a48-739f-490e-a0b7-4dd1b97f57bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b80d365ea5cd407dae4820ea255259a8" ns3:_="">
+    <xsd:import namespace="a5b27a48-739f-490e-a0b7-4dd1b97f57bd"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
@@ -2815,110 +3874,45 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fbd20f8d-4393-4267-a91e-177565f53573" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a5b27a48-739f-490e-a0b7-4dd1b97f57bd" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6b9e6764-2123-43e1-9261-ccdf6ee0c0e8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="fbd20f8d-4393-4267-a91e-177565f53573">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9a805386-296a-4c25-a15d-8b8f56daca3c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aad2b175-6ea8-418f-92ad-249cca2ac702" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -3024,6 +4018,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9BB28C-48C6-4511-AE62-F147E305E634}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5b27a48-739f-490e-a0b7-4dd1b97f57bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9327FA-3AA5-40B0-ACC0-C46A80C76022}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3031,26 +4041,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9BB28C-48C6-4511-AE62-F147E305E634}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fbd20f8d-4393-4267-a91e-177565f53573"/>
-    <ds:schemaRef ds:uri="9a805386-296a-4c25-a15d-8b8f56daca3c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{096E38C7-5116-4FBB-B677-8B463EFAA222}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5C7E3F-5321-433B-8E46-8AD714BB3791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fbd20f8d-4393-4267-a91e-177565f53573"/>
-    <ds:schemaRef ds:uri="9a805386-296a-4c25-a15d-8b8f56daca3c"/>
+    <ds:schemaRef ds:uri="a5b27a48-739f-490e-a0b7-4dd1b97f57bd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
